--- a/weekly_content/weekly_content_plan_HP.xlsx
+++ b/weekly_content/weekly_content_plan_HP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/hp12384_bristol_ac_uk/Documents/Teaching/UoB/EMAT10007_2023/weekly_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{F2FCDE39-672E-0044-9EAE-42FF74C13228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6745EE9B-8A0D-994B-87BB-4C5F86280712}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{F2FCDE39-672E-0044-9EAE-42FF74C13228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32EE262-A395-DA4A-8B4C-98F09B023A4A}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="26440" windowHeight="15920" xr2:uid="{228F261D-1DF1-9344-81D9-2AC7985BA606}"/>
+    <workbookView xWindow="420" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{228F261D-1DF1-9344-81D9-2AC7985BA606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,16 +56,6 @@
     <t xml:space="preserve">If, elif, else , netsed conditionals </t>
   </si>
   <si>
-    <t xml:space="preserve">video Q&amp;A 
-if examples
-if/else examples 
-if /elif/else examples
-multiple elif exmaples
-putting control statements in the correct order - thiking about the algorithm 
-nesting control statements  
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. A set of if statements (point to where to find more help in the hint)
 2. A set of if/else statements
 3. if/elif/else
@@ -81,13 +71,6 @@
 break and continue</t>
   </si>
   <si>
-    <t xml:space="preserve">for loop demos (range of numbers, iterating over list of discrete items)
-nested for loop demos (combinatorics)
-while loop demos
-while loop - uses of the while loop - constantly repeating code for dynamic applications (robot with series of actions to perform - print each action instead of using actual robot, sensor analysis, media pipe with if person detected) 
-break and continue demos </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. For loops basic
 2. While loop basic 
 3. while loop interactive using keyboard https://stackoverflow.com/questions/24072790/how-to-detect-key-presses
@@ -95,16 +78,11 @@
 5. open ended question : ada lovelac bernoulli numbers </t>
   </si>
   <si>
-    <t xml:space="preserve">How to save your work
-1. Create variables and find operations that do certain things using documentation (including casting) (multiple places to find the practise for this in hints)
-2. Represent some long equations using arithmetic operators with answers you are aiming for to check the output has worked (e.g. shift a number by certian number of places)
-3. Evaluating a problem with comparison and identity operators (circles)
-4. Logical operators
-5. Open-ended question </t>
+    <t>Use chat GGPT to test all exercises</t>
   </si>
   <si>
     <t xml:space="preserve">1.1 Course introduction video (course structure, instructors, discussion forum, assessment)
-1.2 Where we will run code + why
+1.2 Where we will run code + why: where to access computers, what software to use, where to store files
 1.3 Types of variable
 1.4 Arithmetic and assignment operators
 1.5 Comparison operators (compare variable value) + Identity operators
@@ -116,20 +94,47 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Who's done any programming bfore? Who's done any prpgramming on python before? - be respectful of each other, be helpful to each other (explaining it to someone else is a great way to reinforce your own understanding) 
+    <t xml:space="preserve">video Q&amp;A 
+if examples
+if/else examples 
+if /elif/else examples
+multiple elif exmaples
+putting control statements in the correct order - thinking about the algorithm 
+nesting control statements  
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for loop demos (range of numbers, iterating over list of discrete items)
+while loop demos
+how to choose which one?  - give some example scenarios 
+nested for loop demos (combinatorics)
+while loop - uses of the while loop - constantly repeating code for dynamic applications (robot with series of actions to perform (scribbler robots)- print each action instead of using actual robot, sensor analysis, media pipe with if person detected) 
+break and continue demos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who's done any programming before? Who's done any prpgramming on python before? - be respectful of each other, be helpful to each other (explaining it to someone else is a great way to reinforce your own understanding) Who watched the videos? Who tried some prgramming out for themselves ? 
 Video Q&amp;A (introduce discussion forum - so I can prep and answer your questions more efficiently at the start of class)
-Demo creating variables in different environments
 Objects, why we have different types, and how each type is handled by the computer
-Casting and what happens when we cast
+Casting and what happens when we cast (numer of days in a week float to int), can't cast string representation of no integarer as int (when varibales start ending up in your program form external sources of data)  
+Different representation of True and False (0, 1), string re-cast as boolean 
 Demo using arithmetic operators noticing precedence (with bbd poll)(group exercise with big sheets of paper to write out equations)
-Demo comparison operators with precedence, stacking and identity operators - can you tell me why the output is different? (with bbd poll)(group exercise with big sheets of paper to write out equations)
-Different representation fo True and False 
+Demo comparison operators with precedence, stacking and identity operators - can you tell me why the output is different? (with bbd poll)(group exercise with big sheets of paper to write out equations, a b or c)
 Demo logical operators - logical processes for or and and - a couple of examples showing common or/and mistake with mutliple values 
-How a programming language lives on a computer - different envs  
+Practise in different envs 
 </t>
   </si>
   <si>
-    <t>Use chat GGPT to test all exercises</t>
+    <t xml:space="preserve">How to save your work
+**Tips for running python files when completing the in-class exercises.**
+To run the code for one exercise at a time, you can either:
+- save your answers to each exercise as separate .py (Python) files
+or 
+- use comments `#` to *comment out* the code you do not want to run, leaving only the code for the exercise you are working on uncommented.  
+1. Create variables and find operations that do certain things using documentation (including casting) (multiple places to find the practise for this in hints)
+2. Represent some long equations using arithmetic operators with answers you are aiming for to check the output has worked (e.g. shift a number by certian number of places)
+3. Evaluating a problem with comparison and identity operators (circles)
+4. Logical operators
+5. Open-ended question </t>
   </si>
 </sst>
 </file>
@@ -503,7 +508,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,16 +535,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -550,24 +555,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="170" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/weekly_content/weekly_content_plan_HP.xlsx
+++ b/weekly_content/weekly_content_plan_HP.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B32DEA-1650-CD42-A3E3-11EF7C9273BC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/weekly_content/weekly_content_plan_HP.xlsx
+++ b/weekly_content/weekly_content_plan_HP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/hp12384_bristol_ac_uk/Documents/Teaching/UoB/EMAT10007_2023/weekly_content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{F2FCDE39-672E-0044-9EAE-42FF74C13228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D32EE262-A395-DA4A-8B4C-98F09B023A4A}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{F2FCDE39-672E-0044-9EAE-42FF74C13228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0EFBB84-5DF0-6647-A868-3E9CDC4101E6}"/>
   <bookViews>
     <workbookView xWindow="420" yWindow="500" windowWidth="28040" windowHeight="15920" xr2:uid="{228F261D-1DF1-9344-81D9-2AC7985BA606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,13 +56,6 @@
     <t xml:space="preserve">If, elif, else , netsed conditionals </t>
   </si>
   <si>
-    <t xml:space="preserve">1. A set of if statements (point to where to find more help in the hint)
-2. A set of if/else statements
-3. if/elif/else
-4. multiple elif (what's the correct order?)
-5. Open ended question - text based adventure game - get a friend or TA to play it or send it to me! </t>
-  </si>
-  <si>
     <t xml:space="preserve">Loops </t>
   </si>
   <si>
@@ -135,6 +128,14 @@
 3. Evaluating a problem with comparison and identity operators (circles)
 4. Logical operators
 5. Open-ended question </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A set of if statements (point to where to find more help in the hint)
+2. A set of if/else statements
+3. if/elif/else (earth layers)
+nested conditionals 
+4. multiple elif (what's the correct order?)
+5. Open ended question - text based adventure game - get a friend or TA to play it or send it to me! </t>
   </si>
 </sst>
 </file>
@@ -507,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B32DEA-1650-CD42-A3E3-11EF7C9273BC}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -535,16 +536,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
@@ -555,24 +556,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="204" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/weekly_content/weekly_content_plan_HP.xlsx
+++ b/weekly_content/weekly_content_plan_HP.xlsx
@@ -509,7 +509,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
